--- a/documents/3v3/3v3_Teamplate.xlsx
+++ b/documents/3v3/3v3_Teamplate.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobsh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\From C Drive\Basketball\3v3 Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A321E0F-F40B-4EED-B43F-FA9D7ECE0F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214E340E-3F62-4AAA-8D45-292A07E7FF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12 Team 1 Pool (3hrs)" sheetId="8" r:id="rId1"/>
     <sheet name="10 Team 1 Pool (2.75hrs)" sheetId="1" r:id="rId2"/>
     <sheet name="8 Team 1 Pool (2.25hrs)" sheetId="3" r:id="rId3"/>
     <sheet name="8 Team 2 Pools (2hrs)" sheetId="4" r:id="rId4"/>
-    <sheet name="7 Team 1 Pool (2hrs)" sheetId="9" r:id="rId5"/>
-    <sheet name="6 Team 1 Pool (1.75hrs)" sheetId="6" r:id="rId6"/>
-    <sheet name="6 Team 2 Pools (1.5hrs)" sheetId="5" r:id="rId7"/>
-    <sheet name="4 Teams 1 Pool (1.25hrs)" sheetId="7" r:id="rId8"/>
+    <sheet name="6 Team 1 Pool (1.75hrs)" sheetId="6" r:id="rId5"/>
+    <sheet name="6 Team 2 Pools (1.5hrs)" sheetId="5" r:id="rId6"/>
+    <sheet name="4 Teams 1 Pool (1.25hrs)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="125">
   <si>
     <t>TEAM</t>
   </si>
@@ -245,9 +244,6 @@
 9:45am Court A</t>
   </si>
   <si>
-    <t>1 vs 10</t>
-  </si>
-  <si>
     <t>3 vs 8</t>
   </si>
   <si>
@@ -411,43 +407,13 @@
   </si>
   <si>
     <t>TOTAL TIME = 2HRS15MIN</t>
-  </si>
-  <si>
-    <t>7 TEAM ROUND ROBIN</t>
-  </si>
-  <si>
-    <t>7 vs 2</t>
-  </si>
-  <si>
-    <t>7 vs 5</t>
-  </si>
-  <si>
-    <t>7 vs 6</t>
-  </si>
-  <si>
-    <t>Court B (9:30am)</t>
-  </si>
-  <si>
-    <t>Court A (9:45am)</t>
-  </si>
-  <si>
-    <t>in round 1 the 8:15am game for team 2 does not count towards wins/losses, etc</t>
-  </si>
-  <si>
-    <t>in round 2 the 8:30am game for team 6 does not count towards wins/losses, etc</t>
-  </si>
-  <si>
-    <t>in round 3 the 9:15am game for team 5 does not count towards wins/losses, etc</t>
-  </si>
-  <si>
-    <t>You can put whatever team you want in those, but they have to be teams in the games prior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,25 +485,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,12 +496,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,9 +712,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -787,27 +729,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,14 +747,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,31 +789,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,11 +1144,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="A1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
@@ -1257,12 +1178,12 @@
       <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
@@ -1282,14 +1203,14 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="20.25">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -1312,7 +1233,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
@@ -1328,10 +1249,10 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="4" t="s">
@@ -1351,16 +1272,16 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="21" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -1376,19 +1297,19 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="15.75">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="3">
@@ -1399,12 +1320,12 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="19" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="15.75">
       <c r="E9" s="3">
@@ -1415,12 +1336,12 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="19" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="5" t="s">
@@ -1440,12 +1361,12 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="21"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="4" t="s">
@@ -1465,14 +1386,14 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="21"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -1488,16 +1409,16 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="21"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>19</v>
@@ -1505,7 +1426,7 @@
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="3">
         <v>11</v>
       </c>
       <c r="F13" s="4"/>
@@ -1513,14 +1434,14 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="21"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
@@ -1528,7 +1449,7 @@
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4"/>
@@ -1536,18 +1457,18 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="19" t="s">
+      <c r="M14" s="8"/>
+      <c r="N14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="21"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>20</v>
@@ -1555,37 +1476,37 @@
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="21"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="18.75">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18" t="s">
+      <c r="M16" s="8"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75">
-      <c r="L17" s="11"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="31"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="5" t="s">
@@ -1597,16 +1518,16 @@
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="31"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:15" ht="16.5">
       <c r="A19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>21</v>
@@ -1614,14 +1535,14 @@
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="31"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
@@ -1629,14 +1550,14 @@
       <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="21"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="4" t="s">
@@ -1648,12 +1569,12 @@
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="21"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="4" t="s">
@@ -1665,14 +1586,14 @@
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
     </row>
     <row r="23" spans="1:15" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>62</v>
@@ -1680,52 +1601,52 @@
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="1:15" ht="15.75">
-      <c r="A24" s="38" t="s">
-        <v>120</v>
+      <c r="A24" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="30" t="s">
+      <c r="L24" s="8"/>
+      <c r="M24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:15">
-      <c r="A29" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
+      <c r="A29" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1741,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1761,11 +1682,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
@@ -1795,12 +1716,12 @@
       <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
@@ -1820,10 +1741,10 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="20.25">
       <c r="A4" s="4" t="s">
@@ -1867,9 +1788,9 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="4" t="s">
@@ -1890,11 +1811,11 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="4" t="s">
@@ -1914,10 +1835,10 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="15.75">
       <c r="E8" s="3">
@@ -1929,11 +1850,11 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="5" t="s">
@@ -1954,15 +1875,15 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -1978,16 +1899,16 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="9"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -2003,10 +1924,10 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="4" t="s">
@@ -2026,12 +1947,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="9"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="4" t="s">
@@ -2043,10 +1964,10 @@
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="9"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="4" t="s">
@@ -2058,22 +1979,22 @@
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>43</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="15.75">
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="18.75">
       <c r="A16" s="5" t="s">
@@ -2089,8 +2010,8 @@
         <v>44</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18" t="s">
+      <c r="N16" s="16"/>
+      <c r="O16" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2104,9 +2025,9 @@
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="12"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15" ht="15.75">
@@ -2119,11 +2040,11 @@
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="12"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:15" ht="16.5">
@@ -2136,9 +2057,9 @@
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="15.75">
@@ -2151,18 +2072,19 @@
       <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="G20" s="52"/>
+      <c r="L20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="9"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="15.75">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>22</v>
@@ -2171,65 +2093,65 @@
         <v>23</v>
       </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="9"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="1:15" ht="16.5">
-      <c r="L22" s="9"/>
-      <c r="M22" s="17"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
     </row>
     <row r="23" spans="1:15" ht="15.75">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="1:15" ht="15.75">
       <c r="L24" s="8"/>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="15" t="s">
         <v>41</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="1:15" ht="16.5">
-      <c r="L25" s="10"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:15">
-      <c r="A28" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
+      <c r="A28" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2260,11 +2182,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="A1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -2316,7 +2238,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -2335,7 +2257,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
@@ -2354,7 +2276,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -2402,7 +2324,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
@@ -2473,7 +2395,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -2484,7 +2406,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
@@ -2495,7 +2417,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>21</v>
@@ -2506,7 +2428,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>21</v>
@@ -2516,73 +2438,73 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53" t="s">
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:9">
-      <c r="A28" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
+      <c r="A28" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2616,26 +2538,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="F1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="K1" s="56" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
@@ -2846,14 +2768,14 @@
       <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:16">
       <c r="C9" s="1"/>
@@ -2995,76 +2917,76 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="F15" s="53" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="F15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="F16" s="53" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="F16" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:9">
-      <c r="A22" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
+      <c r="A22" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3084,809 +3006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798722D7-C23E-486B-9DF4-9CD92C1BA20B}">
-  <dimension ref="A1:AB30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="18.75">
-      <c r="A1" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="M3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75">
-      <c r="A5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="M5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75">
-      <c r="A6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="M6" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-    </row>
-    <row r="7" spans="1:28" s="20" customFormat="1" ht="16.5">
-      <c r="E7" s="3">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75">
-      <c r="A11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-    </row>
-    <row r="12" spans="1:28" s="20" customFormat="1" ht="15.75">
-      <c r="A12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-    </row>
-    <row r="13" spans="1:28" ht="18.75">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75">
-      <c r="A15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75">
-      <c r="A16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75">
-      <c r="A18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-    </row>
-    <row r="19" spans="1:28" ht="16.5">
-      <c r="M19" s="17"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75">
-      <c r="M20" s="22"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75">
-      <c r="A21" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="M21" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-    </row>
-    <row r="23" spans="1:28" s="20" customFormat="1">
-      <c r="A23" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-    </row>
-    <row r="24" spans="1:28" s="20" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A24" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-    </row>
-    <row r="30" spans="1:28">
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A25:I26"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:N24"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3900,11 +3024,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
-      <c r="A1" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="A1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
@@ -3934,9 +3058,9 @@
       <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
@@ -3956,13 +3080,13 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" ht="20.25">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -3984,7 +3108,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
@@ -4000,9 +3124,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="15.75">
       <c r="E6" s="3">
@@ -4013,11 +3137,11 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="5" t="s">
@@ -4037,9 +3161,9 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="15.75">
       <c r="A8" s="4" t="s">
@@ -4059,11 +3183,11 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="4" t="s">
@@ -4075,15 +3199,15 @@
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="L9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="16.5">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -4091,14 +3215,14 @@
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="9"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="15.75">
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="9"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="5" t="s">
@@ -4110,15 +3234,15 @@
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="9"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
@@ -4127,8 +3251,8 @@
         <v>23</v>
       </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="9"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="4" t="s">
@@ -4141,10 +3265,10 @@
         <v>24</v>
       </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="4" t="s">
@@ -4157,81 +3281,81 @@
         <v>23</v>
       </c>
       <c r="L15" s="8"/>
-      <c r="M15" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" s="9"/>
+      <c r="M15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="18.75">
       <c r="L16" s="8"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75">
-      <c r="L17" s="9"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="15.75">
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="12"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" thickBot="1">
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="15.75">
-      <c r="A20" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="L20" s="19" t="s">
+      <c r="A20" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+      <c r="L20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="9"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="L21" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="9"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="L21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="16.5">
-      <c r="L22" s="17"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="15.75">
-      <c r="L23" s="12"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="15.75">
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M24" s="8"/>
@@ -4252,7 +3376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
@@ -4269,26 +3393,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="F1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="K1" s="56" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
@@ -4453,14 +3577,14 @@
       <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
@@ -4542,7 +3666,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>17</v>
@@ -4554,7 +3678,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>17</v>
@@ -4589,366 +3713,288 @@
       <c r="I12" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="21">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="I15" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75">
+      <c r="A17" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="I17" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75">
+      <c r="A20" s="8"/>
+      <c r="B20" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="I15" s="63" t="s">
+      <c r="C20" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75">
-      <c r="A17" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="I17" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="1:15" ht="16.5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75">
-      <c r="A19" s="23"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75">
-      <c r="A20" s="23"/>
-      <c r="B20" s="35" t="s">
+      <c r="D20" s="41"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5">
+      <c r="A21" s="8"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="21"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="21"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75">
+      <c r="A23" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="21"/>
+      <c r="I23" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5">
+      <c r="A24" s="19"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="21"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="21"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="E26" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="35" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75">
-      <c r="A22" s="23"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75">
-      <c r="A23" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="I23" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="58" t="s">
+      <c r="M26" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
     </row>
     <row r="27" spans="1:15" ht="18.75">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
     </row>
     <row r="28" spans="1:15" ht="15.75">
-      <c r="A28" s="23"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="21"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:15" ht="15.75">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="21"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="21"/>
     </row>
     <row r="30" spans="1:15" ht="16.5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="21"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:15" ht="15.75">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="21"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:15" ht="15.75">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="61" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="61" t="s">
+      <c r="D32" s="42"/>
+      <c r="E32" s="21"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="62"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:9" ht="16.5">
-      <c r="A33" s="23"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="37" spans="1:9">
-      <c r="A37" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
+      <c r="A37" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A37:I38"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
@@ -4965,12 +4011,17 @@
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -4986,11 +4037,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="A1" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
@@ -5020,11 +4071,11 @@
       <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="M2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
@@ -5044,9 +4095,9 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="4" t="s">
@@ -5066,9 +4117,9 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="23"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="16.5">
       <c r="E5" s="3">
@@ -5079,11 +4130,11 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="5" t="s">
@@ -5103,9 +4154,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="4" t="s">
@@ -5117,11 +4168,11 @@
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
+      <c r="M7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="4" t="s">
@@ -5133,18 +4184,18 @@
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="23"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="15.75">
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="33"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="5" t="s">
@@ -5156,17 +4207,17 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" s="33" t="s">
+      <c r="M10" s="8"/>
+      <c r="N10" s="18" t="s">
         <v>99</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>17</v>
@@ -5174,11 +4225,11 @@
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="36"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="4" t="s">
@@ -5190,58 +4241,58 @@
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="15.75">
-      <c r="M13" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="23"/>
+      <c r="M13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="16.5">
-      <c r="M14" s="24"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="15.75">
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="23"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="15.75">
-      <c r="M16" s="23"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="23"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:9">
-      <c r="A18" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
+      <c r="A18" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/3v3/3v3_Teamplate.xlsx
+++ b/documents/3v3/3v3_Teamplate.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\From C Drive\Basketball\3v3 Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214E340E-3F62-4AAA-8D45-292A07E7FF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BCA2C3-053F-42D0-896F-F6D4F3E2EEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="12 Team 1 Pool (3hrs)" sheetId="8" r:id="rId1"/>
-    <sheet name="10 Team 1 Pool (2.75hrs)" sheetId="1" r:id="rId2"/>
-    <sheet name="8 Team 1 Pool (2.25hrs)" sheetId="3" r:id="rId3"/>
-    <sheet name="8 Team 2 Pools (2hrs)" sheetId="4" r:id="rId4"/>
-    <sheet name="6 Team 1 Pool (1.75hrs)" sheetId="6" r:id="rId5"/>
-    <sheet name="6 Team 2 Pools (1.5hrs)" sheetId="5" r:id="rId6"/>
-    <sheet name="4 Teams 1 Pool (1.25hrs)" sheetId="7" r:id="rId7"/>
+    <sheet name="14 Team 1 Pool (3.5hrs)" sheetId="9" r:id="rId1"/>
+    <sheet name="12 Team 1 Pool (3hrs)" sheetId="8" r:id="rId2"/>
+    <sheet name="10 Team 1 Pool (2.75hrs)" sheetId="1" r:id="rId3"/>
+    <sheet name="8 Team 1 Pool (2.25hrs)" sheetId="3" r:id="rId4"/>
+    <sheet name="8 Team 2 Pools (2hrs)" sheetId="4" r:id="rId5"/>
+    <sheet name="6 Team 1 Pool (1.75hrs)" sheetId="6" r:id="rId6"/>
+    <sheet name="6 Team 2 Pools (1.5hrs)" sheetId="5" r:id="rId7"/>
+    <sheet name="4 Teams 1 Pool (1.25hrs)" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="145">
   <si>
     <t>TEAM</t>
   </si>
@@ -407,6 +408,66 @@
   </si>
   <si>
     <t>TOTAL TIME = 2HRS15MIN</t>
+  </si>
+  <si>
+    <t>7 vs 9</t>
+  </si>
+  <si>
+    <t>8 vs 14</t>
+  </si>
+  <si>
+    <t>6 vs 10</t>
+  </si>
+  <si>
+    <t>3 vs 14</t>
+  </si>
+  <si>
+    <t>5 vs 11</t>
+  </si>
+  <si>
+    <t>4 vs 12</t>
+  </si>
+  <si>
+    <t>2 vs 14</t>
+  </si>
+  <si>
+    <t>4 vs 13</t>
+  </si>
+  <si>
+    <t>8 vs 10</t>
+  </si>
+  <si>
+    <t>7 vs 11</t>
+  </si>
+  <si>
+    <t>9 vs 14</t>
+  </si>
+  <si>
+    <t>6 vs 12</t>
+  </si>
+  <si>
+    <t>5 vs 13</t>
+  </si>
+  <si>
+    <t>10:15am</t>
+  </si>
+  <si>
+    <t>10:30am</t>
+  </si>
+  <si>
+    <t>Court B (10:45am)</t>
+  </si>
+  <si>
+    <t>Court A (11:00am)</t>
+  </si>
+  <si>
+    <t>Court B (11:00am)</t>
+  </si>
+  <si>
+    <t>Court A (11:15am)</t>
+  </si>
+  <si>
+    <t>TOTAL TIME = 3.5HRS</t>
   </si>
 </sst>
 </file>
@@ -500,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -691,11 +752,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,30 +859,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,11 +1206,618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDD94F9-DB1B-4DA7-9124-C38FE2A0B92B}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75">
+      <c r="A1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="L3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75">
+      <c r="A6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
+      <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
+      <c r="A8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75">
+      <c r="A9" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75">
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75">
+      <c r="A12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75">
+      <c r="A13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="L13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5">
+      <c r="A14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75">
+      <c r="A15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75">
+      <c r="A16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" ht="18.75">
+      <c r="A17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75">
+      <c r="A18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75">
+      <c r="L19" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75">
+      <c r="A22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75">
+      <c r="A24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75">
+      <c r="A25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="52"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="52"/>
+    </row>
+    <row r="31" spans="1:15" ht="26.25">
+      <c r="A31" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:15" ht="26.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L3:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,7 +1837,7 @@
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1872,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1616,7 +2303,6 @@
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="8"/>
       <c r="M24" s="15" t="s">
         <v>41</v>
       </c>
@@ -1658,11 +2344,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2072,7 +2758,6 @@
       <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="52"/>
       <c r="L20" s="15" t="s">
         <v>45</v>
       </c>
@@ -2165,7 +2850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -2521,7 +3206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
@@ -3005,7 +3690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -3376,7 +4061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
@@ -3713,24 +4398,24 @@
       <c r="I12" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="21">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="I15" s="51" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="I15" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:16" ht="15.75">
       <c r="A16" s="8"/>
@@ -3743,16 +4428,16 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:15" ht="15.75">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
@@ -3781,18 +4466,18 @@
       <c r="B20" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="44"/>
       <c r="I20" s="8"/>
       <c r="J20" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="41"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:15" ht="16.5">
       <c r="A21" s="8"/>
@@ -3819,17 +4504,17 @@
       <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="15.75">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="21"/>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="21"/>
@@ -3865,38 +4550,38 @@
       <c r="D26" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="M26" s="48" t="s">
+      <c r="M26" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
     </row>
     <row r="27" spans="1:15" ht="18.75">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="9"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
     </row>
     <row r="28" spans="1:15" ht="15.75">
       <c r="A28" s="8"/>
@@ -3911,13 +4596,13 @@
       <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:15" ht="15.75">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="21"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="21"/>
@@ -3949,17 +4634,17 @@
     <row r="32" spans="1:15" ht="15.75">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="21"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="41" t="s">
+      <c r="K32" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="42"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -3995,6 +4680,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A37:I38"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
@@ -4011,17 +4701,12 @@
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
